--- a/Travis_County/Documentation/Travis_County_2013_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2013_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QSERV' 'QFHH' 'QHISPC' 'QESL' 'QNOHLTH'
+          <t>['PPUNIT' 'QFHH' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QPOVTY' 'QRENTER' 'QFAM' 'QNOAUTO']</t>
+          <t>['PPUNIT' 'QRENTER' 'QFAM' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QFEMLBR' 'QFEMALE' 'QAGEDEP']</t>
+          <t>['QFEMALE' 'QAGEDEP' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -588,63 +588,63 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7902275168842363</v>
+        <v>0.7902275165323367</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02455912218872438</v>
+        <v>-0.02455912210047059</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4600798313857993</v>
+        <v>-0.4600798265337037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06838368164268331</v>
+        <v>0.06838368148083136</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1573190518636133</v>
+        <v>-0.1573190497643179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7251699878687954</v>
+        <v>0.6130097814099174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1597478173654777</v>
+        <v>0.2399781594692201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1377359002815803</v>
+        <v>0.1790883810539986</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2661556137600721</v>
+        <v>0.262013816056053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05427315700115507</v>
+        <v>-0.09687620126079302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8855973734455028</v>
+        <v>0.6164840039903862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2225892957387915</v>
+        <v>0.445338319500932</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2488822016181454</v>
+        <v>0.3253808145275445</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1306950255528541</v>
+        <v>-0.2013657287527142</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01576000997207247</v>
+        <v>-0.0821058418095862</v>
       </c>
     </row>
     <row r="5">
@@ -654,107 +654,107 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5381204760182273</v>
+        <v>0.5381204752784663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3662181474189189</v>
+        <v>0.3662181480252166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2976695003335406</v>
+        <v>0.29766950120097</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001243120610922255</v>
+        <v>0.001243120973004728</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1694031917803729</v>
+        <v>-0.1694031916490242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6130097809951358</v>
+        <v>0.7251699864974676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2399781593953662</v>
+        <v>0.1597478186990243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.179088379790462</v>
+        <v>0.137735901008178</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2620138149426557</v>
+        <v>-0.2661556141792868</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0968762018735064</v>
+        <v>0.0542731569191852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8388032614718808</v>
+        <v>0.8069195274027448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3352021745912915</v>
+        <v>0.1431421462673804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1601474925984373</v>
+        <v>0.2282344066406292</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06922549956793969</v>
+        <v>-0.2351410662516274</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09574193671756649</v>
+        <v>-0.0215068959427597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8069195264491309</v>
+        <v>0.8388032609392188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1431421462317144</v>
+        <v>0.3352021757011634</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228234405162553</v>
+        <v>0.1601474932357065</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2351410651729647</v>
+        <v>-0.06922549950080999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02150689642647902</v>
+        <v>-0.09574193664954313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6164840058569458</v>
+        <v>0.8855973742225899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4453383189190414</v>
+        <v>0.2225892957832175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3253808146949057</v>
+        <v>0.2488822041126817</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2013657290934465</v>
+        <v>-0.1306950260795137</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08210584104477041</v>
+        <v>0.01576001153787721</v>
       </c>
     </row>
     <row r="10">
@@ -764,217 +764,217 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4725767459087916</v>
+        <v>0.4725767454152621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7137770008521781</v>
+        <v>0.7137770005873879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2336096411578177</v>
+        <v>0.2336096424972315</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005326542202808546</v>
+        <v>0.005326542191881722</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2730791493520798</v>
+        <v>-0.2730791484659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3726973489362276</v>
+        <v>0.1589560307154843</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8017743600279067</v>
+        <v>0.858248130084476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08260668988840693</v>
+        <v>0.3041837792558107</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306761857343838</v>
+        <v>0.004009561501261934</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06162804287283988</v>
+        <v>-0.1338394773551382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1589560321836481</v>
+        <v>0.3726973490978535</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8582481279554023</v>
+        <v>0.8017743578204324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3041837798433087</v>
+        <v>0.08260669060806446</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004009561979702691</v>
+        <v>0.03067618575093604</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1338394781995285</v>
+        <v>-0.06162804297150613</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4090324312885394</v>
+        <v>-0.007034391187877889</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1933683377843157</v>
+        <v>0.2082000118516525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4940719686813557</v>
+        <v>0.7800125732977286</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02947174140653514</v>
+        <v>-0.1101264153554879</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3383025187865674</v>
+        <v>-0.4193040231013465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.007034389925396053</v>
+        <v>0.2493636374503665</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2082000092073653</v>
+        <v>0.2498208255995001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7800125780925167</v>
+        <v>0.5200879797823313</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1101264151922949</v>
+        <v>0.09552580902966797</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4193040241923381</v>
+        <v>-0.1315017286932762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2493636390106918</v>
+        <v>0.1911459589363538</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2498208244962494</v>
+        <v>0.09747168808006407</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5200879821990539</v>
+        <v>0.6356287811780605</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09552580971076896</v>
+        <v>-0.006055161056030798</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1315017286583013</v>
+        <v>-0.03646340148529349</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.191145961088699</v>
+        <v>0.4090324310498006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09747168830347513</v>
+        <v>0.1933683360348016</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6356287768884127</v>
+        <v>0.4940719745037385</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.006055160670047123</v>
+        <v>-0.02947174046105295</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03646340355772749</v>
+        <v>-0.3383025193834173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1982536587057598</v>
+        <v>-0.06658500548861797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1418071554035811</v>
+        <v>-0.06807863240491877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03868227039388229</v>
+        <v>-0.0204800386068439</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7433016967828671</v>
+        <v>0.8696948642610516</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02001253451448132</v>
+        <v>0.1203783700291517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0665850057585128</v>
+        <v>0.01678028762196785</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0680786324569433</v>
+        <v>-0.1306700629132541</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0204800384053583</v>
+        <v>-0.09147423576591124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8696948699069621</v>
+        <v>0.6945701925506927</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1203783675972759</v>
+        <v>0.5699008951874491</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01678028823897825</v>
+        <v>-0.1982536588688737</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1306700630887858</v>
+        <v>0.1418071559978814</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09147423516936196</v>
+        <v>0.0386822705246177</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6945701970195896</v>
+        <v>0.7433017059610204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5699008951564061</v>
+        <v>-0.02001253565263549</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3244474141296254</v>
+        <v>-0.3244474135117502</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2578790645666318</v>
+        <v>-0.2578790660093226</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2749783750226582</v>
+        <v>-0.2749783774492807</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001848684107483671</v>
+        <v>-0.001848682738725</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8112807267129239</v>
+        <v>0.8112807183109635</v>
       </c>
     </row>
     <row r="21">
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05321156919515927</v>
+        <v>0.05321156903320884</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04844388776912689</v>
+        <v>-0.04844388727422573</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1337452424493809</v>
+        <v>-0.1337452409546111</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1584510235932619</v>
+        <v>0.1584510221529807</v>
       </c>
       <c r="F21" t="n">
-        <v>0.750291961246315</v>
+        <v>0.750291967498725</v>
       </c>
     </row>
   </sheetData>
@@ -1134,55 +1134,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.524595062783599</v>
+        <v>4.524595077502688</v>
       </c>
       <c r="C2" t="n">
-        <v>3.113165444221955</v>
+        <v>3.113165441052899</v>
       </c>
       <c r="D2" t="n">
-        <v>2.536632561291338</v>
+        <v>2.536632550782927</v>
       </c>
       <c r="E2" t="n">
-        <v>2.093348629852335</v>
+        <v>2.093348638054015</v>
       </c>
       <c r="F2" t="n">
-        <v>2.093236315378311</v>
+        <v>2.093236337350453</v>
       </c>
       <c r="G2" t="n">
-        <v>1.983034018810552</v>
+        <v>1.983034029122986</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8849929643732772</v>
+        <v>0.8849929909863777</v>
       </c>
       <c r="I2" t="n">
-        <v>5.029294812412426</v>
+        <v>5.029294805889601</v>
       </c>
       <c r="J2" t="n">
-        <v>3.088512141473534</v>
+        <v>3.088512148077809</v>
       </c>
       <c r="K2" t="n">
-        <v>2.341179477381754</v>
+        <v>2.341179479818402</v>
       </c>
       <c r="L2" t="n">
-        <v>2.102363014047206</v>
+        <v>2.102363009327097</v>
       </c>
       <c r="M2" t="n">
-        <v>2.065199334066601</v>
+        <v>2.0651993393022</v>
       </c>
       <c r="N2" t="n">
-        <v>5.14042332912529</v>
+        <v>5.140423323011532</v>
       </c>
       <c r="O2" t="n">
-        <v>2.750776518734341</v>
+        <v>2.750776522408552</v>
       </c>
       <c r="P2" t="n">
-        <v>2.381629063973832</v>
+        <v>2.38162906535214</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.101428975547255</v>
+        <v>2.101428973837291</v>
       </c>
       <c r="R2" t="n">
-        <v>2.048359026247388</v>
+        <v>2.048359020620988</v>
       </c>
     </row>
     <row r="3">
@@ -1192,55 +1192,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1675775949179111</v>
+        <v>0.1675775954630625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1153024238600724</v>
+        <v>0.1153024237427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0939493541219014</v>
+        <v>0.093949353732701</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07753143073527168</v>
+        <v>0.0775314310390376</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07752727093993744</v>
+        <v>0.07752727175372048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07344570440039079</v>
+        <v>0.0734457047823328</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03277751719901027</v>
+        <v>0.03277751818468066</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2394902291624965</v>
+        <v>0.2394902288518857</v>
       </c>
       <c r="J3" t="n">
-        <v>0.147072006736835</v>
+        <v>0.1470720070513242</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1114847370181787</v>
+        <v>0.1114847371342096</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1001125244784384</v>
+        <v>0.1001125242536713</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09834282543174291</v>
+        <v>0.09834282568105714</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2570211664562645</v>
+        <v>0.2570211661505766</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1375388259367171</v>
+        <v>0.1375388261204276</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1190814531986916</v>
+        <v>0.119081453267607</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1050714487773628</v>
+        <v>0.1050714486918645</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1024179513123694</v>
+        <v>0.1024179510310494</v>
       </c>
     </row>
     <row r="4">
@@ -1250,55 +1250,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1675775949179111</v>
+        <v>0.1675775954630625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2828800187779835</v>
+        <v>0.2828800192057625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3768293728998849</v>
+        <v>0.3768293729384635</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4543608036351566</v>
+        <v>0.4543608039775011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.531888074575094</v>
+        <v>0.5318880757312217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6053337789754848</v>
+        <v>0.6053337805135545</v>
       </c>
       <c r="H4" t="n">
-        <v>0.638111296174495</v>
+        <v>0.6381112986982351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2394902291624965</v>
+        <v>0.2394902288518857</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3865622358993315</v>
+        <v>0.3865622359032099</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4980469729175102</v>
+        <v>0.4980469730374195</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5981594973959486</v>
+        <v>0.5981594972910907</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6965023228276915</v>
+        <v>0.6965023229721479</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2570211664562645</v>
+        <v>0.2570211661505766</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3945599923929816</v>
+        <v>0.3945599922710042</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5136414455916731</v>
+        <v>0.5136414455386112</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6187128943690359</v>
+        <v>0.6187128942304758</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7211308456814053</v>
+        <v>0.7211308452615252</v>
       </c>
     </row>
     <row r="5">
@@ -1308,55 +1308,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2626149950996731</v>
+        <v>0.2626149949153471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1806932811741705</v>
+        <v>0.1806932802755885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1472303572827058</v>
+        <v>0.1472303560904819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1215014233411569</v>
+        <v>0.121501423336656</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1214949044229695</v>
+        <v>0.1214949052177548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1150985805151875</v>
+        <v>0.1150985806585216</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05136645816413674</v>
+        <v>0.05136645950565005</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3438469927712563</v>
+        <v>0.3438469922539836</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2111579558554025</v>
+        <v>0.2111579562631343</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1600636973694043</v>
+        <v>0.1600636975027975</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1437360956270714</v>
+        <v>0.1437360952745518</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1411952583768655</v>
+        <v>0.141195258705533</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3564140516183329</v>
+        <v>0.3564140514019552</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1907265883305199</v>
+        <v>0.1907265886963243</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1651315484725523</v>
+        <v>0.1651315486642663</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1457037227107925</v>
+        <v>0.1457037226770675</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1420240888678024</v>
+        <v>0.1420240885603867</v>
       </c>
     </row>
   </sheetData>
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.14042332912529</v>
+        <v>5.140423323011532</v>
       </c>
       <c r="C2" t="n">
-        <v>2.750776518734341</v>
+        <v>2.750776522408552</v>
       </c>
       <c r="D2" t="n">
-        <v>2.381629063973832</v>
+        <v>2.38162906535214</v>
       </c>
       <c r="E2" t="n">
-        <v>2.101428975547255</v>
+        <v>2.101428973837291</v>
       </c>
       <c r="F2" t="n">
-        <v>2.048359026247388</v>
+        <v>2.048359020620988</v>
       </c>
     </row>
     <row r="3">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2570211664562645</v>
+        <v>0.2570211661505766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1375388259367171</v>
+        <v>0.1375388261204276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1190814531986916</v>
+        <v>0.119081453267607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1050714487773628</v>
+        <v>0.1050714486918645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1024179513123694</v>
+        <v>0.1024179510310494</v>
       </c>
     </row>
     <row r="4">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2570211664562645</v>
+        <v>0.2570211661505766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3945599923929816</v>
+        <v>0.3945599922710042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5136414455916731</v>
+        <v>0.5136414455386112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6187128943690359</v>
+        <v>0.6187128942304758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7211308456814053</v>
+        <v>0.7211308452615252</v>
       </c>
     </row>
     <row r="5">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3564140516183329</v>
+        <v>0.3564140514019552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1907265883305199</v>
+        <v>0.1907265886963243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1651315484725523</v>
+        <v>0.1651315486642663</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1457037227107925</v>
+        <v>0.1457037226770675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1420240888678024</v>
+        <v>0.1420240885603867</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QSERV', 'QFHH', 'QHISPC', 'QESL', 'QNOHLTH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QPOVTY', 'QRENTER', 'QFAM', 'QNOAUTO', 'QFEMLBR', 'QFEMALE', 'QAGEDEP', 'MEDAGE', 'QSSBEN']]</t>
+          <t>[['PPUNIT', 'QFHH', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'QFAM', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QAGEDEP', 'QFEMLBR', 'MEDAGE', 'QSSBEN']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2013_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2013_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QFHH' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI'
+          <t>['QFHH' 'QEXTRCT' 'QESL' 'QSERV' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'PPUNIT'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QRENTER' 'QFAM' 'QNOAUTO' 'QPOVTY']</t>
+          <t>['PPUNIT' 'QNOAUTO' 'QFAM' 'QPOVTY' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -584,67 +584,67 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7902275165323367</v>
+        <v>0.6130097802287742</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02455912210047059</v>
+        <v>0.239978159676989</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4600798265337037</v>
+        <v>0.1790883814224902</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06838368148083136</v>
+        <v>0.262013814284403</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1573190497643179</v>
+        <v>-0.09687620081128795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6130097814099174</v>
+        <v>0.7251699863320422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2399781594692201</v>
+        <v>0.1597478183150892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1790883810539986</v>
+        <v>0.1377359005470241</v>
       </c>
       <c r="E3" t="n">
-        <v>0.262013816056053</v>
+        <v>-0.2661556136923773</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09687620126079302</v>
+        <v>0.05427315672140481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6164840039903862</v>
+        <v>0.8069195261083518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.445338319500932</v>
+        <v>0.1431421467523631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3253808145275445</v>
+        <v>0.2282344058765108</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2013657287527142</v>
+        <v>-0.2351410659370698</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0821058418095862</v>
+        <v>-0.02150689562978648</v>
       </c>
     </row>
     <row r="5">
@@ -654,63 +654,63 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5381204752784663</v>
+        <v>0.5381204762310401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3662181480252166</v>
+        <v>0.3662181481210688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29766950120097</v>
+        <v>0.2976695020306968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001243120973004728</v>
+        <v>0.001243120447125841</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1694031916490242</v>
+        <v>-0.1694031906558406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7251699864974676</v>
+        <v>0.8855973717365144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1597478186990243</v>
+        <v>0.2225892968177428</v>
       </c>
       <c r="D6" t="n">
-        <v>0.137735901008178</v>
+        <v>0.2488822021457034</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2661556141792868</v>
+        <v>-0.1306950258814004</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0542731569191852</v>
+        <v>0.01576001023577571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8069195274027448</v>
+        <v>0.6164840043624696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1431421462673804</v>
+        <v>0.4453383185961811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2282344066406292</v>
+        <v>0.3253808146485978</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2351410662516274</v>
+        <v>-0.2013657289792384</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0215068959427597</v>
+        <v>-0.0821058409770364</v>
       </c>
     </row>
     <row r="8">
@@ -720,63 +720,63 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8388032609392188</v>
+        <v>0.8388032601183163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3352021757011634</v>
+        <v>0.3352021751978502</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1601474932357065</v>
+        <v>0.1601474941799912</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06922549950080999</v>
+        <v>-0.06922550015760333</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09574193664954313</v>
+        <v>-0.09574193586286749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8855973742225899</v>
+        <v>0.7902275184118881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2225892957832175</v>
+        <v>-0.02455912229977708</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2488822041126817</v>
+        <v>-0.4600798297761929</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1306950260795137</v>
+        <v>0.06838368203286514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01576001153787721</v>
+        <v>-0.1573190521175666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4725767454152621</v>
+        <v>0.3726973477821662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7137770005873879</v>
+        <v>0.8017743629615228</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2336096424972315</v>
+        <v>0.08260669006362975</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005326542191881722</v>
+        <v>0.03067618537231438</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2730791484659</v>
+        <v>-0.0616280421022527</v>
       </c>
     </row>
     <row r="11">
@@ -786,63 +786,63 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1589560307154843</v>
+        <v>0.1589560330252456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.858248130084476</v>
+        <v>0.8582481226876135</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3041837792558107</v>
+        <v>0.3041837810421318</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004009561501261934</v>
+        <v>0.004009561818174905</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1338394773551382</v>
+        <v>-0.1338394785245755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3726973490978535</v>
+        <v>0.4725767453171966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8017743578204324</v>
+        <v>0.7137770005937595</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08260669060806446</v>
+        <v>0.2336096429751176</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03067618575093604</v>
+        <v>0.005326541425149918</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06162804297150613</v>
+        <v>-0.2730791479650062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.007034391187877889</v>
+        <v>0.1911459603874481</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2082000118516525</v>
+        <v>0.09747168847552645</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7800125732977286</v>
+        <v>0.6356287759526252</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1101264153554879</v>
+        <v>-0.006055161124304209</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4193040231013465</v>
+        <v>-0.03646340249915507</v>
       </c>
     </row>
     <row r="14">
@@ -852,63 +852,63 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2493636374503665</v>
+        <v>0.24936363833287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2498208255995001</v>
+        <v>0.2498208244118127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5200879797823313</v>
+        <v>0.5200879848999341</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09552580902966797</v>
+        <v>0.09552580984429827</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1315017286932762</v>
+        <v>-0.1315017269903488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1911459589363538</v>
+        <v>0.4090324315002548</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09747168808006407</v>
+        <v>0.1933683367143404</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6356287811780605</v>
+        <v>0.4940719717597633</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.006055161056030798</v>
+        <v>-0.02947174181151335</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03646340148529349</v>
+        <v>-0.3383025180502712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4090324310498006</v>
+        <v>-0.007034391376006852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1933683360348016</v>
+        <v>0.2082000091993175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4940719745037385</v>
+        <v>0.7800125794385477</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02947174046105295</v>
+        <v>-0.1101264167172551</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3383025193834173</v>
+        <v>-0.4193040226190115</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06658500548861797</v>
+        <v>-0.06658500625169884</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06807863240491877</v>
+        <v>-0.06807863173732551</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0204800386068439</v>
+        <v>-0.02048003878417229</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8696948642610516</v>
+        <v>0.8696948637271279</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1203783700291517</v>
+        <v>0.1203783672576243</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01678028762196785</v>
+        <v>0.01678028827316813</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1306700629132541</v>
+        <v>-0.1306700637175077</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09147423576591124</v>
+        <v>-0.09147423609968817</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6945701925506927</v>
+        <v>0.6945701971035576</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5699008951874491</v>
+        <v>0.5699008919509142</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1982536588688737</v>
+        <v>-0.1982536588678416</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1418071559978814</v>
+        <v>0.1418071555235534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0386822705246177</v>
+        <v>0.03868227084506072</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7433017059610204</v>
+        <v>0.7433016999041869</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02001253565263549</v>
+        <v>-0.02001253572212925</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3244474135117502</v>
+        <v>-0.324447414124592</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2578790660093226</v>
+        <v>-0.2578790648015011</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2749783774492807</v>
+        <v>-0.2749783764521916</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001848682738725</v>
+        <v>-0.001848683372856838</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8112807183109635</v>
+        <v>0.8112807273119098</v>
       </c>
     </row>
     <row r="21">
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05321156903320884</v>
+        <v>0.05321156983344678</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04844388727422573</v>
+        <v>-0.0484438876767588</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1337452409546111</v>
+        <v>-0.1337452422844142</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1584510221529807</v>
+        <v>0.1584510249103133</v>
       </c>
       <c r="F21" t="n">
-        <v>0.750291967498725</v>
+        <v>0.7502919650015258</v>
       </c>
     </row>
   </sheetData>
@@ -1155,34 +1155,34 @@
         <v>0.8849929909863777</v>
       </c>
       <c r="I2" t="n">
-        <v>5.029294805889601</v>
+        <v>5.029294800682629</v>
       </c>
       <c r="J2" t="n">
-        <v>3.088512148077809</v>
+        <v>3.088512139402711</v>
       </c>
       <c r="K2" t="n">
-        <v>2.341179479818402</v>
+        <v>2.341179471419304</v>
       </c>
       <c r="L2" t="n">
-        <v>2.102363009327097</v>
+        <v>2.102363009983734</v>
       </c>
       <c r="M2" t="n">
-        <v>2.0651993393022</v>
+        <v>2.065199329199284</v>
       </c>
       <c r="N2" t="n">
-        <v>5.140423323011532</v>
+        <v>5.140423319541426</v>
       </c>
       <c r="O2" t="n">
-        <v>2.750776522408552</v>
+        <v>2.75077651552099</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38162906535214</v>
+        <v>2.38162907455727</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.101428973837291</v>
+        <v>2.101428970481397</v>
       </c>
       <c r="R2" t="n">
-        <v>2.048359020620988</v>
+        <v>2.048359025330222</v>
       </c>
     </row>
     <row r="3">
@@ -1213,34 +1213,34 @@
         <v>0.03277751818468066</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2394902288518857</v>
+        <v>0.2394902286039347</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1470720070513242</v>
+        <v>0.1470720066382243</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1114847371342096</v>
+        <v>0.1114847367342526</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1001125242536713</v>
+        <v>0.1001125242849397</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09834282568105714</v>
+        <v>0.09834282519996591</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2570211661505766</v>
+        <v>0.2570211659770713</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1375388261204276</v>
+        <v>0.1375388257760495</v>
       </c>
       <c r="P3" t="n">
-        <v>0.119081453267607</v>
+        <v>0.1190814537278635</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1050714486918645</v>
+        <v>0.1050714485240698</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1024179510310494</v>
+        <v>0.1024179512665111</v>
       </c>
     </row>
     <row r="4">
@@ -1271,34 +1271,34 @@
         <v>0.6381112986982351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2394902288518857</v>
+        <v>0.2394902286039347</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3865622359032099</v>
+        <v>0.386562235242159</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4980469730374195</v>
+        <v>0.4980469719764116</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5981594972910907</v>
+        <v>0.5981594962613513</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6965023229721479</v>
+        <v>0.6965023214613173</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2570211661505766</v>
+        <v>0.2570211659770713</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3945599922710042</v>
+        <v>0.3945599917531207</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5136414455386112</v>
+        <v>0.5136414454809842</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6187128942304758</v>
+        <v>0.618712894005054</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7211308452615252</v>
+        <v>0.7211308452715651</v>
       </c>
     </row>
     <row r="5">
@@ -1329,34 +1329,34 @@
         <v>0.05136645950565005</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3438469922539836</v>
+        <v>0.343846992643851</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2111579562631343</v>
+        <v>0.2111579561280651</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1600636975027975</v>
+        <v>0.160063697275766</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1437360952745518</v>
+        <v>0.143736095631233</v>
       </c>
       <c r="M5" t="n">
-        <v>0.141195258705533</v>
+        <v>0.1411952583210848</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3564140514019552</v>
+        <v>0.3564140511563912</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1907265886963243</v>
+        <v>0.190726588216116</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1651315486642663</v>
+        <v>0.1651315493002099</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1457037226770675</v>
+        <v>0.1457037224423562</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1420240885603867</v>
+        <v>0.1420240888849267</v>
       </c>
     </row>
   </sheetData>
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.140423323011532</v>
+        <v>5.140423319541426</v>
       </c>
       <c r="C2" t="n">
-        <v>2.750776522408552</v>
+        <v>2.75077651552099</v>
       </c>
       <c r="D2" t="n">
-        <v>2.38162906535214</v>
+        <v>2.38162907455727</v>
       </c>
       <c r="E2" t="n">
-        <v>2.101428973837291</v>
+        <v>2.101428970481397</v>
       </c>
       <c r="F2" t="n">
-        <v>2.048359020620988</v>
+        <v>2.048359025330222</v>
       </c>
     </row>
     <row r="3">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2570211661505766</v>
+        <v>0.2570211659770713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1375388261204276</v>
+        <v>0.1375388257760495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.119081453267607</v>
+        <v>0.1190814537278635</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1050714486918645</v>
+        <v>0.1050714485240698</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1024179510310494</v>
+        <v>0.1024179512665111</v>
       </c>
     </row>
     <row r="4">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2570211661505766</v>
+        <v>0.2570211659770713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3945599922710042</v>
+        <v>0.3945599917531207</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5136414455386112</v>
+        <v>0.5136414454809842</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6187128942304758</v>
+        <v>0.618712894005054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7211308452615252</v>
+        <v>0.7211308452715651</v>
       </c>
     </row>
     <row r="5">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3564140514019552</v>
+        <v>0.3564140511563912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1907265886963243</v>
+        <v>0.190726588216116</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1651315486642663</v>
+        <v>0.1651315493002099</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1457037226770675</v>
+        <v>0.1457037224423562</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1420240885603867</v>
+        <v>0.1420240888849267</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QFHH', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'QFAM', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QAGEDEP', 'QFEMLBR', 'MEDAGE', 'QSSBEN']]</t>
+          <t>[['QFHH', 'QEXTRCT', 'QESL', 'QSERV', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'PPUNIT', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QNOAUTO', 'QFAM', 'QPOVTY', 'QRENTER', 'QFEMALE', 'QAGEDEP', 'QFEMLBR', 'MEDAGE', 'QSSBEN']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2013_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2013_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QFHH' 'QEXTRCT' 'QESL' 'QSERV' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'PPUNIT'
+          <t>['QSERV' 'QFHH' 'QHISPC' 'QEDLESHI' 'QNOHLTH' 'QESL' 'PPUNIT' 'QEXTRCT'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QNOAUTO' 'QFAM' 'QPOVTY' 'QRENTER']</t>
+          <t>['PPUNIT' 'QNOAUTO' 'QPOVTY' 'QRENTER' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QFEMALE' 'QAGEDEP' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'QSSBEN' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -584,243 +584,243 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6130097802287742</v>
+        <v>0.5381204751319512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239978159676989</v>
+        <v>0.3662181495109431</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1790883814224902</v>
+        <v>0.2976695030656286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.262013814284403</v>
+        <v>0.001243119697268828</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09687620081128795</v>
+        <v>-0.169403188940627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7251699863320422</v>
+        <v>0.6130097831512937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1597478183150892</v>
+        <v>0.2399781591693043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1377359005470241</v>
+        <v>0.1790883841059889</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2661556136923773</v>
+        <v>0.262013816775974</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05427315672140481</v>
+        <v>-0.09687619950102999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8069195261083518</v>
+        <v>0.8388032637219848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1431421467523631</v>
+        <v>0.3352021753304731</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2282344058765108</v>
+        <v>0.1601474956817818</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2351410659370698</v>
+        <v>-0.06922549985931019</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02150689562978648</v>
+        <v>-0.09574193465063523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5381204762310401</v>
+        <v>0.8855973614226529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3662181481210688</v>
+        <v>0.2225893013927557</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2976695020306968</v>
+        <v>0.2488821997052932</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001243120447125841</v>
+        <v>-0.1306950246605276</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1694031906558406</v>
+        <v>0.01576000589942111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8855973717365144</v>
+        <v>0.6164840041304507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2225892968177428</v>
+        <v>0.4453383193800906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2488822021457034</v>
+        <v>0.3253808165621783</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1306950258814004</v>
+        <v>-0.2013657286674192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01576001023577571</v>
+        <v>-0.08210583967820179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6164840043624696</v>
+        <v>0.8069195261612075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4453383185961811</v>
+        <v>0.1431421451574245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3253808146485978</v>
+        <v>0.2282344082060187</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2013657289792384</v>
+        <v>-0.2351410650504814</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0821058409770364</v>
+        <v>-0.02150689556929739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8388032601183163</v>
+        <v>0.7902275169365798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3352021751978502</v>
+        <v>-0.02455912049023291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1601474941799912</v>
+        <v>-0.4600798249827534</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06922550015760333</v>
+        <v>0.06838368016836407</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09574193586286749</v>
+        <v>-0.1573190495954288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7902275184118881</v>
+        <v>0.7251699886427621</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02455912229977708</v>
+        <v>0.1597478160462525</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4600798297761929</v>
+        <v>0.1377359028071791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06838368203286514</v>
+        <v>-0.2661556136340222</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1573190521175666</v>
+        <v>0.05427315761957422</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3726973477821662</v>
+        <v>0.1589560336557637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8017743629615228</v>
+        <v>0.8582481198084332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08260669006362975</v>
+        <v>0.3041837810343528</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03067618537231438</v>
+        <v>0.004009562688229646</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0616280421022527</v>
+        <v>-0.1338394787664548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1589560330252456</v>
+        <v>0.4725767448997422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8582481226876135</v>
+        <v>0.7137769933882232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3041837810421318</v>
+        <v>0.23360964660658</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004009561818174905</v>
+        <v>0.00532654035318215</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1338394785245755</v>
+        <v>-0.2730791446221674</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4725767453171966</v>
+        <v>0.3726973484607343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7137770005937595</v>
+        <v>0.8017743548999904</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2336096429751176</v>
+        <v>0.08260669463154222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005326541425149918</v>
+        <v>0.03067618588106992</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2730791479650062</v>
+        <v>-0.06162804312041255</v>
       </c>
     </row>
     <row r="13">
@@ -830,195 +830,195 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1911459603874481</v>
+        <v>0.1911459588519667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09747168847552645</v>
+        <v>0.09747169108633319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6356287759526252</v>
+        <v>0.6356287686922173</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.006055161124304209</v>
+        <v>-0.006055162496571286</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03646340249915507</v>
+        <v>-0.03646340287378295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.24936363833287</v>
+        <v>0.4090324292043737</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2498208244118127</v>
+        <v>0.1933683399464961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5200879848999341</v>
+        <v>0.4940719683132042</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09552580984429827</v>
+        <v>-0.02947174366382025</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1315017269903488</v>
+        <v>-0.3383025141107034</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4090324315002548</v>
+        <v>-0.007034393176870034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1933683367143404</v>
+        <v>0.2082000072585756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4940719717597633</v>
+        <v>0.7800125845244715</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02947174181151335</v>
+        <v>-0.1101264162299841</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3383025180502712</v>
+        <v>-0.4193040220698699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007034391376006852</v>
+        <v>0.2493636377250857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2082000091993175</v>
+        <v>0.249820823376892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7800125794385477</v>
+        <v>0.5200879928886192</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1101264167172551</v>
+        <v>0.09552581112637204</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4193040226190115</v>
+        <v>-0.1315017241078608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06658500625169884</v>
+        <v>0.01678028746183512</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06807863173732551</v>
+        <v>-0.1306700641906274</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02048003878417229</v>
+        <v>-0.09147423709580581</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8696948637271279</v>
+        <v>0.6945701934258486</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1203783672576243</v>
+        <v>0.5699008906849055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01678028827316813</v>
+        <v>-0.1982536593004132</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1306700637175077</v>
+        <v>0.1418071566825722</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09147423609968817</v>
+        <v>0.03868226967556371</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6945701971035576</v>
+        <v>0.7433016918963765</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5699008919509142</v>
+        <v>-0.02001253281241641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1982536588678416</v>
+        <v>-0.0665850047221718</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1418071555235534</v>
+        <v>-0.06807863468096388</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03868227084506072</v>
+        <v>-0.02048003800765474</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7433016999041869</v>
+        <v>0.8696948779508056</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02001253572212925</v>
+        <v>0.1203783652956305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.324447414124592</v>
+        <v>0.05321156937084062</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2578790648015011</v>
+        <v>-0.04844388660497572</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2749783764521916</v>
+        <v>-0.1337452429896528</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001848683372856838</v>
+        <v>0.1584510228281707</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8112807273119098</v>
+        <v>0.7502919683851625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05321156983344678</v>
+        <v>-0.324447414045288</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0484438876767588</v>
+        <v>-0.2578790660438089</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1337452422844142</v>
+        <v>-0.2749783775127918</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1584510249103133</v>
+        <v>-0.001848683687433284</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7502919650015258</v>
+        <v>0.8112807265660074</v>
       </c>
     </row>
   </sheetData>
@@ -1155,34 +1155,34 @@
         <v>0.8849929909863777</v>
       </c>
       <c r="I2" t="n">
-        <v>5.029294800682629</v>
+        <v>5.029294816679101</v>
       </c>
       <c r="J2" t="n">
-        <v>3.088512139402711</v>
+        <v>3.08851212667733</v>
       </c>
       <c r="K2" t="n">
-        <v>2.341179471419304</v>
+        <v>2.341179475069111</v>
       </c>
       <c r="L2" t="n">
-        <v>2.102363009983734</v>
+        <v>2.102363003151583</v>
       </c>
       <c r="M2" t="n">
-        <v>2.065199329199284</v>
+        <v>2.065199329427239</v>
       </c>
       <c r="N2" t="n">
-        <v>5.140423319541426</v>
+        <v>5.140423307946821</v>
       </c>
       <c r="O2" t="n">
-        <v>2.75077651552099</v>
+        <v>2.750776491517093</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38162907455727</v>
+        <v>2.381629080808134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.101428970481397</v>
+        <v>2.101428977954915</v>
       </c>
       <c r="R2" t="n">
-        <v>2.048359025330222</v>
+        <v>2.048359019557499</v>
       </c>
     </row>
     <row r="3">
@@ -1213,34 +1213,34 @@
         <v>0.03277751818468066</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2394902286039347</v>
+        <v>0.2394902293656715</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1470720066382243</v>
+        <v>0.1470720060322538</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1114847367342526</v>
+        <v>0.1114847369080529</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1001125242849397</v>
+        <v>0.1001125239595992</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09834282519996591</v>
+        <v>0.09834282521082088</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2570211659770713</v>
+        <v>0.257021165397341</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1375388257760495</v>
+        <v>0.1375388245758547</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1190814537278635</v>
+        <v>0.1190814540404067</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1050714485240698</v>
+        <v>0.1050714488977457</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1024179512665111</v>
+        <v>0.1024179509778749</v>
       </c>
     </row>
     <row r="4">
@@ -1271,34 +1271,34 @@
         <v>0.6381112986982351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2394902286039347</v>
+        <v>0.2394902293656715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.386562235242159</v>
+        <v>0.3865622353979253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4980469719764116</v>
+        <v>0.4980469723059782</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5981594962613513</v>
+        <v>0.5981594962655774</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6965023214613173</v>
+        <v>0.6965023214763983</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2570211659770713</v>
+        <v>0.257021165397341</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3945599917531207</v>
+        <v>0.3945599899731957</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5136414454809842</v>
+        <v>0.5136414440136025</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.618712894005054</v>
+        <v>0.6187128929113482</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7211308452715651</v>
+        <v>0.7211308438892232</v>
       </c>
     </row>
     <row r="5">
@@ -1329,34 +1329,34 @@
         <v>0.05136645950565005</v>
       </c>
       <c r="I5" t="n">
-        <v>0.343846992643851</v>
+        <v>0.3438469937300659</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2111579561280651</v>
+        <v>0.2111579552534736</v>
       </c>
       <c r="K5" t="n">
-        <v>0.160063697275766</v>
+        <v>0.1600636975218333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.143736095631233</v>
+        <v>0.1437360951610147</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1411952583210848</v>
+        <v>0.1411952583336125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3564140511563912</v>
+        <v>0.3564140510356862</v>
       </c>
       <c r="O5" t="n">
-        <v>0.190726588216116</v>
+        <v>0.1907265869173982</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1651315493002099</v>
+        <v>0.165131550050159</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1457037224423562</v>
+        <v>0.1457037232398374</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1420240888849267</v>
+        <v>0.142024088756919</v>
       </c>
     </row>
   </sheetData>
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.140423319541426</v>
+        <v>5.140423307946821</v>
       </c>
       <c r="C2" t="n">
-        <v>2.75077651552099</v>
+        <v>2.750776491517093</v>
       </c>
       <c r="D2" t="n">
-        <v>2.38162907455727</v>
+        <v>2.381629080808134</v>
       </c>
       <c r="E2" t="n">
-        <v>2.101428970481397</v>
+        <v>2.101428977954915</v>
       </c>
       <c r="F2" t="n">
-        <v>2.048359025330222</v>
+        <v>2.048359019557499</v>
       </c>
     </row>
     <row r="3">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2570211659770713</v>
+        <v>0.257021165397341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1375388257760495</v>
+        <v>0.1375388245758547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1190814537278635</v>
+        <v>0.1190814540404067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1050714485240698</v>
+        <v>0.1050714488977457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1024179512665111</v>
+        <v>0.1024179509778749</v>
       </c>
     </row>
     <row r="4">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2570211659770713</v>
+        <v>0.257021165397341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3945599917531207</v>
+        <v>0.3945599899731957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5136414454809842</v>
+        <v>0.5136414440136025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.618712894005054</v>
+        <v>0.6187128929113482</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7211308452715651</v>
+        <v>0.7211308438892232</v>
       </c>
     </row>
     <row r="5">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3564140511563912</v>
+        <v>0.3564140510356862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190726588216116</v>
+        <v>0.1907265869173982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1651315493002099</v>
+        <v>0.165131550050159</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1457037224423562</v>
+        <v>0.1457037232398374</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1420240888849267</v>
+        <v>0.142024088756919</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QFHH', 'QEXTRCT', 'QESL', 'QSERV', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'PPUNIT', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QNOAUTO', 'QFAM', 'QPOVTY', 'QRENTER', 'QFEMALE', 'QAGEDEP', 'QFEMLBR', 'MEDAGE', 'QSSBEN']]</t>
+          <t>[['QSERV', 'QFHH', 'QHISPC', 'QEDLESHI', 'QNOHLTH', 'QESL', 'PPUNIT', 'QEXTRCT', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QNOAUTO', 'QPOVTY', 'QRENTER', 'QFAM', 'QAGEDEP', 'QFEMLBR', 'QFEMALE', 'QSSBEN', 'MEDAGE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
